--- a/Carl Task List.xlsx
+++ b/Carl Task List.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="180">
   <si>
     <t>Task No.</t>
   </si>
@@ -558,6 +558,12 @@
   </si>
   <si>
     <t>January 04-05, 2017</t>
+  </si>
+  <si>
+    <t>Redesign Shipr (UI) - Promotion Setup; Promo Type Controls</t>
+  </si>
+  <si>
+    <t>Deploy the old Shipr tool to (afs-sw-shipr01.afservice.org)</t>
   </si>
 </sst>
 </file>
@@ -798,8 +804,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C291" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="A1:C291"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C296" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="A1:C296"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Task No." totalsRowLabel="Total" dataDxfId="2"/>
     <tableColumn id="2" name="Task" dataDxfId="1"/>
@@ -1075,10 +1081,10 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:E291"/>
+  <dimension ref="A1:E296"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A305" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B226" sqref="B226"/>
+    <sheetView tabSelected="1" topLeftCell="A281" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B296" sqref="B296"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -3864,6 +3870,43 @@
         <v>150</v>
       </c>
     </row>
+    <row r="292" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A292" s="18"/>
+      <c r="B292" s="19"/>
+      <c r="C292" s="19"/>
+    </row>
+    <row r="293" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A293" s="18"/>
+      <c r="B293" s="19"/>
+      <c r="C293" s="19"/>
+    </row>
+    <row r="294" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A294" s="20"/>
+      <c r="B294" s="22">
+        <v>42758</v>
+      </c>
+      <c r="C294" s="21"/>
+    </row>
+    <row r="295" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A295" s="18">
+        <v>185</v>
+      </c>
+      <c r="B295" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="C295" s="19" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A296" s="18">
+        <v>186</v>
+      </c>
+      <c r="B296" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="C296" s="19"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/Carl Task List.xlsx
+++ b/Carl Task List.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="180">
   <si>
     <t>Task No.</t>
   </si>
@@ -1084,7 +1084,7 @@
   <dimension ref="A1:E296"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A281" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B296" sqref="B296"/>
+      <selection activeCell="D289" sqref="D289"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -3905,7 +3905,9 @@
       <c r="B296" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="C296" s="19"/>
+      <c r="C296" s="16" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Carl Task List.xlsx
+++ b/Carl Task List.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="181">
   <si>
     <t>Task No.</t>
   </si>
@@ -564,6 +564,9 @@
   </si>
   <si>
     <t>Deploy the old Shipr tool to (afs-sw-shipr01.afservice.org)</t>
+  </si>
+  <si>
+    <t>Redesign Shipr (UI) - Promotion Setup; Promo Type Controls (Sku,Category,Manufacturer)</t>
   </si>
 </sst>
 </file>
@@ -804,8 +807,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C296" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="A1:C296"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C309" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="A1:C309"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Task No." totalsRowLabel="Total" dataDxfId="2"/>
     <tableColumn id="2" name="Task" dataDxfId="1"/>
@@ -1081,10 +1084,10 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:E296"/>
+  <dimension ref="A1:E309"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A281" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D289" sqref="D289"/>
+    <sheetView tabSelected="1" topLeftCell="A285" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B293" sqref="B293"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -3909,6 +3912,79 @@
         <v>14</v>
       </c>
     </row>
+    <row r="297" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A297" s="18"/>
+      <c r="B297" s="19"/>
+      <c r="C297" s="19"/>
+    </row>
+    <row r="298" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A298" s="18"/>
+      <c r="B298" s="19"/>
+      <c r="C298" s="19"/>
+    </row>
+    <row r="299" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A299" s="20"/>
+      <c r="B299" s="22">
+        <v>42759</v>
+      </c>
+      <c r="C299" s="21"/>
+    </row>
+    <row r="300" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A300" s="18">
+        <v>187</v>
+      </c>
+      <c r="B300" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="C300" s="19" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A301" s="18"/>
+      <c r="B301" s="16"/>
+      <c r="C301" s="16"/>
+    </row>
+    <row r="302" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A302" s="18"/>
+      <c r="B302" s="19"/>
+      <c r="C302" s="19"/>
+    </row>
+    <row r="303" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A303" s="18"/>
+      <c r="B303" s="19"/>
+      <c r="C303" s="19"/>
+    </row>
+    <row r="304" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A304" s="18"/>
+      <c r="B304" s="19"/>
+      <c r="C304" s="19"/>
+    </row>
+    <row r="305" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A305" s="18"/>
+      <c r="B305" s="19"/>
+      <c r="C305" s="19"/>
+    </row>
+    <row r="306" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A306" s="18"/>
+      <c r="B306" s="19"/>
+      <c r="C306" s="19"/>
+    </row>
+    <row r="307" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A307" s="18"/>
+      <c r="B307" s="19"/>
+      <c r="C307" s="19"/>
+    </row>
+    <row r="308" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A308" s="18"/>
+      <c r="B308" s="19"/>
+      <c r="C308" s="19"/>
+    </row>
+    <row r="309" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A309" s="18"/>
+      <c r="B309" s="19"/>
+      <c r="C309" s="19"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
